--- a/sql/users.xlsx
+++ b/sql/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nifont/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nifont/IdeaProjects/md/sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD80587-137E-1A47-9EB5-BE4BE886921B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F3248-C46A-924B-AAFF-5785F915E635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5520" yWindow="-24240" windowWidth="45040" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5520" yWindow="-25520" windowWidth="45280" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>Штатные сотрудники</t>
   </si>
@@ -224,31 +224,28 @@
     <t>04.08.2001</t>
   </si>
   <si>
-    <t>8 (952) 198-23-71</t>
-  </si>
-  <si>
     <t>Тестировщик программного обеспечения МС</t>
   </si>
   <si>
     <t>01.01.2023</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>пол</t>
-  </si>
-  <si>
     <t>ж</t>
   </si>
   <si>
     <t>м</t>
   </si>
   <si>
-    <t>роль</t>
-  </si>
-  <si>
     <t>а</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>Роль</t>
   </si>
 </sst>
 </file>
@@ -390,6 +387,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -401,21 +413,6 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -762,8 +759,8 @@
   </sheetPr>
   <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG8" zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+    <sheetView tabSelected="1" topLeftCell="AB6" zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -808,171 +805,171 @@
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
     </row>
     <row r="5" spans="1:38" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
     </row>
     <row r="7" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25">
         <v>9</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
     </row>
     <row r="8" spans="1:38" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:38" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
     </row>
     <row r="10" spans="1:38" ht="53" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
       <c r="X10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1010,86 +1007,86 @@
         <v>22</v>
       </c>
       <c r="AJ10" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK10" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL10" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
     </row>
     <row r="12" spans="1:38" ht="11" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1122,44 +1119,44 @@
       </c>
       <c r="AJ12" s="16"/>
       <c r="AK12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AL12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="11" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="23" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1191,41 +1188,41 @@
         <v>4</v>
       </c>
       <c r="AK13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="11" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="7" t="s">
         <v>27</v>
       </c>
@@ -1261,34 +1258,34 @@
       <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="7" t="s">
         <v>27</v>
       </c>
@@ -1324,34 +1321,34 @@
       <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="7" t="s">
         <v>27</v>
       </c>
@@ -1385,34 +1382,34 @@
       <c r="A17" s="6">
         <v>6</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="23" t="s">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1436,49 +1433,47 @@
       <c r="AF17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AG17" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="AG17" s="11"/>
       <c r="AH17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AI17" s="10"/>
-      <c r="AK17" s="25" t="s">
-        <v>73</v>
+      <c r="AK17" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="11" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>7</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
       <c r="X18" s="7" t="s">
         <v>27</v>
       </c>
@@ -1514,34 +1509,34 @@
       <c r="A19" s="6">
         <v>8</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
       <c r="X19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1575,34 +1570,34 @@
       <c r="A20" s="6">
         <v>9</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="7" t="s">
         <v>27</v>
       </c>
@@ -1614,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="AB20" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC20" s="10"/>
       <c r="AD20" s="7" t="s">
@@ -1632,12 +1627,40 @@
       </c>
       <c r="AI20" s="10"/>
       <c r="AK20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:37" s="1" customFormat="1" ht="10" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C4:AI4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="A9:AI9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:W10"/>
+    <mergeCell ref="A11:AI11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:W12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:W13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M14:W14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:W15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:W16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:W17"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F20:L20"/>
     <mergeCell ref="M20:W20"/>
@@ -1647,34 +1670,6 @@
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="F19:L19"/>
     <mergeCell ref="M19:W19"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:W16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="M17:W17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M14:W14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:W15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M12:W12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:W13"/>
-    <mergeCell ref="A9:AI9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:W10"/>
-    <mergeCell ref="A11:AI11"/>
-    <mergeCell ref="C4:AI4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:V7"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
